--- a/tut05/output/0501CS36.xlsx
+++ b/tut05/output/0501CS36.xlsx
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.857142857142857</v>
+        <v>7.86</v>
       </c>
       <c r="C6" t="n">
-        <v>8.068181818181818</v>
+        <v>8.07</v>
       </c>
       <c r="D6" t="n">
-        <v>7.86046511627907</v>
+        <v>7.86</v>
       </c>
       <c r="E6" t="n">
-        <v>7.297872340425532</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.857142857142857</v>
+        <v>7.86</v>
       </c>
       <c r="C8" t="n">
-        <v>7.956989247311828</v>
+        <v>7.96</v>
       </c>
       <c r="D8" t="n">
-        <v>7.926470588235294</v>
+        <v>7.93</v>
       </c>
       <c r="E8" t="n">
-        <v>7.765027322404372</v>
+        <v>7.77</v>
       </c>
     </row>
   </sheetData>
